--- a/01_Production_quantities/Non-ferrous Metals/Aluminium_production.xlsx
+++ b/01_Production_quantities/Non-ferrous Metals/Aluminium_production.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge37kog\bwSyncShare\Follow ETSAP\Veröffentlichungen\Materials and energy demands 2018\Publication\ANNEX\01_Production_quantities\Non-ferrous Metals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C73A68F-8CBE-4F31-9EBC-4C934C717F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E3D20C-20AE-4785-8C88-2EC502549313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25310" yWindow="-5170" windowWidth="25420" windowHeight="15250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
   </si>
   <si>
     <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Korea</t>
   </si>
   <si>
     <t>United States of America</t>
@@ -677,6 +671,12 @@
   </si>
   <si>
     <t>Taiwan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Country / Region</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1036,23 +1036,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>85</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>300</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>42</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
         <v>571</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1536,7 +1536,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1569,7 +1569,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50">
         <v>714</v>
@@ -1580,7 +1580,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B53">
         <v>1712</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B54">
         <v>1574</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>341</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B56">
         <v>1915</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>2923</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>35802</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59">
         <v>419</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1701,7 +1701,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>659</v>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>86</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>1164</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>350</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>380</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>44</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>187</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2075,7 +2075,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>876</v>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>90</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101">
         <v>1295</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103">
         <v>125</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B104">
         <v>3347</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>3675</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>2640</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>1011</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>350</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>380</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>616</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>802</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>80</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B123">
         <v>5879</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>242</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B135">
         <v>750</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B144">
         <v>992</v>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147">
         <v>132</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152">
         <v>60</v>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2724,7 +2724,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B155">
         <v>174</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156">
         <v>81</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B157">
         <v>447</v>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B159">
         <v>47</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B163">
         <v>258</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -2834,7 +2834,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -2856,7 +2856,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B168">
         <v>283</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169">
         <v>3627</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B170">
         <v>96</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B174">
         <v>4311</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -2955,7 +2955,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B176">
         <v>891</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B177">
         <v>529</v>
@@ -2994,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3002,17 +3002,17 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3028,7 +3028,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3036,7 +3036,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3044,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3052,7 +3052,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3060,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3068,15 +3068,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
